--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Ckap4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.4967225999056</v>
+        <v>2.219727</v>
       </c>
       <c r="H2">
-        <v>11.4967225999056</v>
+        <v>6.659181</v>
       </c>
       <c r="I2">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="J2">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.84673004415329</v>
+        <v>7.643304666666666</v>
       </c>
       <c r="N2">
-        <v>5.84673004415329</v>
+        <v>22.929914</v>
       </c>
       <c r="O2">
-        <v>0.06546486842843736</v>
+        <v>0.0822412352141863</v>
       </c>
       <c r="P2">
-        <v>0.06546486842843736</v>
+        <v>0.08224123521418632</v>
       </c>
       <c r="Q2">
-        <v>67.2182334341642</v>
+        <v>16.966049737826</v>
       </c>
       <c r="R2">
-        <v>67.2182334341642</v>
+        <v>152.694447640434</v>
       </c>
       <c r="S2">
-        <v>0.05041062028270919</v>
+        <v>0.01056407891181934</v>
       </c>
       <c r="T2">
-        <v>0.05041062028270919</v>
+        <v>0.01056407891181935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.4967225999056</v>
+        <v>2.219727</v>
       </c>
       <c r="H3">
-        <v>11.4967225999056</v>
+        <v>6.659181</v>
       </c>
       <c r="I3">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="J3">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.8967151835353</v>
+        <v>56.929278</v>
       </c>
       <c r="N3">
-        <v>56.8967151835353</v>
+        <v>170.787834</v>
       </c>
       <c r="O3">
-        <v>0.6370631011474758</v>
+        <v>0.6125536461983855</v>
       </c>
       <c r="P3">
-        <v>0.6370631011474758</v>
+        <v>0.6125536461983856</v>
       </c>
       <c r="Q3">
-        <v>654.1257513109424</v>
+        <v>126.367455467106</v>
       </c>
       <c r="R3">
-        <v>654.1257513109424</v>
+        <v>1137.307099203954</v>
       </c>
       <c r="S3">
-        <v>0.49056458615168</v>
+        <v>0.07868394777035373</v>
       </c>
       <c r="T3">
-        <v>0.49056458615168</v>
+        <v>0.07868394777035374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.4967225999056</v>
+        <v>2.219727</v>
       </c>
       <c r="H4">
-        <v>11.4967225999056</v>
+        <v>6.659181</v>
       </c>
       <c r="I4">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="J4">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.665499428864459</v>
+        <v>11.42844566666667</v>
       </c>
       <c r="N4">
-        <v>9.665499428864459</v>
+        <v>34.285337</v>
       </c>
       <c r="O4">
-        <v>0.1082229970645723</v>
+        <v>0.1229689943283104</v>
       </c>
       <c r="P4">
-        <v>0.1082229970645723</v>
+        <v>0.1229689943283104</v>
       </c>
       <c r="Q4">
-        <v>111.1215657232007</v>
+        <v>25.368029414333</v>
       </c>
       <c r="R4">
-        <v>111.1215657232007</v>
+        <v>228.312264728997</v>
       </c>
       <c r="S4">
-        <v>0.08333612427316889</v>
+        <v>0.01579565477595422</v>
       </c>
       <c r="T4">
-        <v>0.08333612427316889</v>
+        <v>0.01579565477595422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.4967225999056</v>
+        <v>2.219727</v>
       </c>
       <c r="H5">
-        <v>11.4967225999056</v>
+        <v>6.659181</v>
       </c>
       <c r="I5">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="J5">
-        <v>0.7700408095651385</v>
+        <v>0.1284523376175785</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9020122660079</v>
+        <v>16.93659166666667</v>
       </c>
       <c r="N5">
-        <v>16.9020122660079</v>
+        <v>50.809775</v>
       </c>
       <c r="O5">
-        <v>0.1892490333595145</v>
+        <v>0.1822361242591178</v>
       </c>
       <c r="P5">
-        <v>0.1892490333595145</v>
+        <v>0.1822361242591178</v>
       </c>
       <c r="Q5">
-        <v>194.3177464024947</v>
+        <v>37.59460981047501</v>
       </c>
       <c r="R5">
-        <v>194.3177464024947</v>
+        <v>338.351488294275</v>
       </c>
       <c r="S5">
-        <v>0.1457294788575805</v>
+        <v>0.02340865615945118</v>
       </c>
       <c r="T5">
-        <v>0.1457294788575805</v>
+        <v>0.02340865615945118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.43329468891587</v>
+        <v>11.50585933333333</v>
       </c>
       <c r="H6">
-        <v>3.43329468891587</v>
+        <v>34.517578</v>
       </c>
       <c r="I6">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778302</v>
       </c>
       <c r="J6">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778303</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.84673004415329</v>
+        <v>7.643304666666666</v>
       </c>
       <c r="N6">
-        <v>5.84673004415329</v>
+        <v>22.929914</v>
       </c>
       <c r="O6">
-        <v>0.06546486842843736</v>
+        <v>0.0822412352141863</v>
       </c>
       <c r="P6">
-        <v>0.06546486842843736</v>
+        <v>0.08224123521418632</v>
       </c>
       <c r="Q6">
-        <v>20.07354720811634</v>
+        <v>87.94278833647688</v>
       </c>
       <c r="R6">
-        <v>20.07354720811634</v>
+        <v>791.485095028292</v>
       </c>
       <c r="S6">
-        <v>0.01505424814572818</v>
+        <v>0.05475844819909224</v>
       </c>
       <c r="T6">
-        <v>0.01505424814572818</v>
+        <v>0.05475844819909226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.43329468891587</v>
+        <v>11.50585933333333</v>
       </c>
       <c r="H7">
-        <v>3.43329468891587</v>
+        <v>34.517578</v>
       </c>
       <c r="I7">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778302</v>
       </c>
       <c r="J7">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778303</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.8967151835353</v>
+        <v>56.929278</v>
       </c>
       <c r="N7">
-        <v>56.8967151835353</v>
+        <v>170.787834</v>
       </c>
       <c r="O7">
-        <v>0.6370631011474758</v>
+        <v>0.6125536461983855</v>
       </c>
       <c r="P7">
-        <v>0.6370631011474758</v>
+        <v>0.6125536461983856</v>
       </c>
       <c r="Q7">
-        <v>195.3431900563907</v>
+        <v>655.020264616228</v>
       </c>
       <c r="R7">
-        <v>195.3431900563907</v>
+        <v>5895.182381546052</v>
       </c>
       <c r="S7">
-        <v>0.1464985149957958</v>
+        <v>0.4078548555011661</v>
       </c>
       <c r="T7">
-        <v>0.1464985149957958</v>
+        <v>0.4078548555011662</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.43329468891587</v>
+        <v>11.50585933333333</v>
       </c>
       <c r="H8">
-        <v>3.43329468891587</v>
+        <v>34.517578</v>
       </c>
       <c r="I8">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778302</v>
       </c>
       <c r="J8">
-        <v>0.2299591904348614</v>
+        <v>0.6658271614778303</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.665499428864459</v>
+        <v>11.42844566666667</v>
       </c>
       <c r="N8">
-        <v>9.665499428864459</v>
+        <v>34.285337</v>
       </c>
       <c r="O8">
-        <v>0.1082229970645723</v>
+        <v>0.1229689943283104</v>
       </c>
       <c r="P8">
-        <v>0.1082229970645723</v>
+        <v>0.1229689943283104</v>
       </c>
       <c r="Q8">
-        <v>33.18450785483972</v>
+        <v>131.4940882393095</v>
       </c>
       <c r="R8">
-        <v>33.18450785483972</v>
+        <v>1183.446794153786</v>
       </c>
       <c r="S8">
-        <v>0.02488687279140344</v>
+        <v>0.0818760964434023</v>
       </c>
       <c r="T8">
-        <v>0.02488687279140344</v>
+        <v>0.08187609644340232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.50585933333333</v>
+      </c>
+      <c r="H9">
+        <v>34.517578</v>
+      </c>
+      <c r="I9">
+        <v>0.6658271614778302</v>
+      </c>
+      <c r="J9">
+        <v>0.6658271614778303</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.93659166666667</v>
+      </c>
+      <c r="N9">
+        <v>50.809775</v>
+      </c>
+      <c r="O9">
+        <v>0.1822361242591178</v>
+      </c>
+      <c r="P9">
+        <v>0.1822361242591178</v>
+      </c>
+      <c r="Q9">
+        <v>194.8700413027723</v>
+      </c>
+      <c r="R9">
+        <v>1753.83037172495</v>
+      </c>
+      <c r="S9">
+        <v>0.1213377613341695</v>
+      </c>
+      <c r="T9">
+        <v>0.1213377613341695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.032</v>
+      </c>
+      <c r="I10">
+        <v>0.0006172643158013742</v>
+      </c>
+      <c r="J10">
+        <v>0.0006172643158013743</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.643304666666666</v>
+      </c>
+      <c r="N10">
+        <v>22.929914</v>
+      </c>
+      <c r="O10">
+        <v>0.0822412352141863</v>
+      </c>
+      <c r="P10">
+        <v>0.08224123521418632</v>
+      </c>
+      <c r="Q10">
+        <v>0.08152858311111111</v>
+      </c>
+      <c r="R10">
+        <v>0.733757248</v>
+      </c>
+      <c r="S10">
+        <v>5.076457978514459E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.076457978514461E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.032</v>
+      </c>
+      <c r="I11">
+        <v>0.0006172643158013742</v>
+      </c>
+      <c r="J11">
+        <v>0.0006172643158013743</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>56.929278</v>
+      </c>
+      <c r="N11">
+        <v>170.787834</v>
+      </c>
+      <c r="O11">
+        <v>0.6125536461983855</v>
+      </c>
+      <c r="P11">
+        <v>0.6125536461983856</v>
+      </c>
+      <c r="Q11">
+        <v>0.607245632</v>
+      </c>
+      <c r="R11">
+        <v>5.465210688</v>
+      </c>
+      <c r="S11">
+        <v>0.0003781075073122834</v>
+      </c>
+      <c r="T11">
+        <v>0.0003781075073122836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.032</v>
+      </c>
+      <c r="I12">
+        <v>0.0006172643158013742</v>
+      </c>
+      <c r="J12">
+        <v>0.0006172643158013743</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>11.42844566666667</v>
+      </c>
+      <c r="N12">
+        <v>34.285337</v>
+      </c>
+      <c r="O12">
+        <v>0.1229689943283104</v>
+      </c>
+      <c r="P12">
+        <v>0.1229689943283104</v>
+      </c>
+      <c r="Q12">
+        <v>0.1219034204444444</v>
+      </c>
+      <c r="R12">
+        <v>1.097130784</v>
+      </c>
+      <c r="S12">
+        <v>7.590437214884757E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.590437214884758E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01066666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.032</v>
+      </c>
+      <c r="I13">
+        <v>0.0006172643158013742</v>
+      </c>
+      <c r="J13">
+        <v>0.0006172643158013743</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.93659166666667</v>
+      </c>
+      <c r="N13">
+        <v>50.809775</v>
+      </c>
+      <c r="O13">
+        <v>0.1822361242591178</v>
+      </c>
+      <c r="P13">
+        <v>0.1822361242591178</v>
+      </c>
+      <c r="Q13">
+        <v>0.1806569777777778</v>
+      </c>
+      <c r="R13">
+        <v>1.6259128</v>
+      </c>
+      <c r="S13">
+        <v>0.0001124878565550985</v>
+      </c>
+      <c r="T13">
+        <v>0.0001124878565550985</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.544296666666666</v>
+      </c>
+      <c r="H14">
+        <v>10.63289</v>
+      </c>
+      <c r="I14">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="J14">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.643304666666666</v>
+      </c>
+      <c r="N14">
+        <v>22.929914</v>
+      </c>
+      <c r="O14">
+        <v>0.0822412352141863</v>
+      </c>
+      <c r="P14">
+        <v>0.08224123521418632</v>
+      </c>
+      <c r="Q14">
+        <v>27.09013925238444</v>
+      </c>
+      <c r="R14">
+        <v>243.81125327146</v>
+      </c>
+      <c r="S14">
+        <v>0.01686794352348956</v>
+      </c>
+      <c r="T14">
+        <v>0.01686794352348957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.43329468891587</v>
-      </c>
-      <c r="H9">
-        <v>3.43329468891587</v>
-      </c>
-      <c r="I9">
-        <v>0.2299591904348614</v>
-      </c>
-      <c r="J9">
-        <v>0.2299591904348614</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>16.9020122660079</v>
-      </c>
-      <c r="N9">
-        <v>16.9020122660079</v>
-      </c>
-      <c r="O9">
-        <v>0.1892490333595145</v>
-      </c>
-      <c r="P9">
-        <v>0.1892490333595145</v>
-      </c>
-      <c r="Q9">
-        <v>58.02958894487582</v>
-      </c>
-      <c r="R9">
-        <v>58.02958894487582</v>
-      </c>
-      <c r="S9">
-        <v>0.04351955450193404</v>
-      </c>
-      <c r="T9">
-        <v>0.04351955450193404</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.544296666666666</v>
+      </c>
+      <c r="H15">
+        <v>10.63289</v>
+      </c>
+      <c r="I15">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="J15">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>56.929278</v>
+      </c>
+      <c r="N15">
+        <v>170.787834</v>
+      </c>
+      <c r="O15">
+        <v>0.6125536461983855</v>
+      </c>
+      <c r="P15">
+        <v>0.6125536461983856</v>
+      </c>
+      <c r="Q15">
+        <v>201.77425025114</v>
+      </c>
+      <c r="R15">
+        <v>1815.96825226026</v>
+      </c>
+      <c r="S15">
+        <v>0.1256367354195533</v>
+      </c>
+      <c r="T15">
+        <v>0.1256367354195533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.544296666666666</v>
+      </c>
+      <c r="H16">
+        <v>10.63289</v>
+      </c>
+      <c r="I16">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="J16">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.42844566666667</v>
+      </c>
+      <c r="N16">
+        <v>34.285337</v>
+      </c>
+      <c r="O16">
+        <v>0.1229689943283104</v>
+      </c>
+      <c r="P16">
+        <v>0.1229689943283104</v>
+      </c>
+      <c r="Q16">
+        <v>40.50580188154778</v>
+      </c>
+      <c r="R16">
+        <v>364.55221693393</v>
+      </c>
+      <c r="S16">
+        <v>0.02522133873680499</v>
+      </c>
+      <c r="T16">
+        <v>0.025221338736805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.544296666666666</v>
+      </c>
+      <c r="H17">
+        <v>10.63289</v>
+      </c>
+      <c r="I17">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="J17">
+        <v>0.2051032365887898</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.93659166666667</v>
+      </c>
+      <c r="N17">
+        <v>50.809775</v>
+      </c>
+      <c r="O17">
+        <v>0.1822361242591178</v>
+      </c>
+      <c r="P17">
+        <v>0.1822361242591178</v>
+      </c>
+      <c r="Q17">
+        <v>60.02830538886111</v>
+      </c>
+      <c r="R17">
+        <v>540.25474849975</v>
+      </c>
+      <c r="S17">
+        <v>0.03737721890894193</v>
+      </c>
+      <c r="T17">
+        <v>0.03737721890894193</v>
       </c>
     </row>
   </sheetData>
